--- a/biology/Médecine/Index_bispectral/Index_bispectral.xlsx
+++ b/biology/Médecine/Index_bispectral/Index_bispectral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'index bispectral (BIS) est un moyen de monitorer le degré de sédation d'un patient. 
-Le BIS est calculé à partir d’une analyse bispectrale du tracé électro-encéphalographique (EEG) informatisé, ce qui va permettre de définir un degré de synchronisation. Ces différentes études ont ainsi proposé des objectifs de BIS entre 40 et 60 pour une anesthésie lors d’une intervention chirurgicale[1].
+Le BIS est calculé à partir d’une analyse bispectrale du tracé électro-encéphalographique (EEG) informatisé, ce qui va permettre de définir un degré de synchronisation. Ces différentes études ont ainsi proposé des objectifs de BIS entre 40 et 60 pour une anesthésie lors d’une intervention chirurgicale.
 </t>
         </is>
       </c>
